--- a/1. Mapas/3.datos/2. datos_estadisticos/1. Detenciones INM/Total_De_Eventos/Eventos Estatal/3.1eventos_2001_2023.xlsx
+++ b/1. Mapas/3.datos/2. datos_estadisticos/1. Detenciones INM/Total_De_Eventos/Eventos Estatal/3.1eventos_2001_2023.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablouriarte/Documents/1. Expediente Tec de Monterrey/1.Tesis/Mapa_Migracion_Irregular_Mexico/2. Datos/INM/Total_De_Eventos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablouriarte/Mapa_Migracion_Irregular_Mexico_Fresh/1. Mapas/3.datos/2. datos_estadisticos/1. Detenciones INM/Total_De_Eventos/Eventos Estatal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8494EEF1-3928-9D4B-806B-574E636D6BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E65FD1-B51D-D247-BAEA-42DB5507080D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -170,7 +182,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-* #\ ##0_-;\-* #\ ##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,13 +201,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -219,17 +251,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_EXP-RECH-DEP 2" xfId="1" xr:uid="{94ADA303-4306-BC4B-A143-E8E20E92C5EF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O760"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A754" workbookViewId="0">
-      <selection activeCell="P793" sqref="A761:P793"/>
+    <sheetView tabSelected="1" topLeftCell="A726" workbookViewId="0">
+      <selection activeCell="N728" sqref="N728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -34712,44 +34750,45 @@
       <c r="A728" t="s">
         <v>15</v>
       </c>
-      <c r="B728">
-        <v>25158</v>
-      </c>
-      <c r="C728">
-        <v>23924</v>
-      </c>
-      <c r="D728">
-        <v>31747</v>
-      </c>
-      <c r="E728">
-        <v>18104</v>
-      </c>
-      <c r="F728">
-        <v>28544</v>
-      </c>
-      <c r="G728">
-        <v>43077</v>
-      </c>
-      <c r="H728">
-        <v>53714</v>
-      </c>
-      <c r="I728">
-        <v>0</v>
-      </c>
-      <c r="J728">
-        <v>0</v>
-      </c>
-      <c r="K728">
-        <v>0</v>
-      </c>
-      <c r="L728">
-        <v>0</v>
-      </c>
-      <c r="M728">
-        <v>0</v>
+      <c r="B728" s="2">
+        <v>24765</v>
+      </c>
+      <c r="C728" s="2">
+        <v>23616</v>
+      </c>
+      <c r="D728" s="2">
+        <v>31148</v>
+      </c>
+      <c r="E728" s="2">
+        <v>17987</v>
+      </c>
+      <c r="F728" s="2">
+        <v>27720</v>
+      </c>
+      <c r="G728" s="2">
+        <v>42737</v>
+      </c>
+      <c r="H728" s="2">
+        <v>54491</v>
+      </c>
+      <c r="I728" s="2">
+        <v>55330</v>
+      </c>
+      <c r="J728" s="2">
+        <v>69969</v>
+      </c>
+      <c r="K728" s="2">
+        <v>64074</v>
+      </c>
+      <c r="L728" s="2">
+        <v>72367</v>
+      </c>
+      <c r="M728" s="2">
+        <v>79365</v>
       </c>
       <c r="N728">
-        <v>224268</v>
+        <f>SUM(B728:M728)</f>
+        <v>563569</v>
       </c>
       <c r="O728">
         <v>2023</v>
@@ -34759,44 +34798,45 @@
       <c r="A729" t="s">
         <v>16</v>
       </c>
-      <c r="B729">
+      <c r="B729" s="3">
         <v>153</v>
       </c>
-      <c r="C729">
+      <c r="C729" s="3">
         <v>155</v>
       </c>
-      <c r="D729">
+      <c r="D729" s="3">
         <v>17</v>
       </c>
-      <c r="E729">
+      <c r="E729" s="3">
         <v>20</v>
       </c>
-      <c r="F729">
+      <c r="F729" s="3">
         <v>0</v>
       </c>
-      <c r="G729">
+      <c r="G729" s="3">
         <v>0</v>
       </c>
-      <c r="H729">
+      <c r="H729" s="3">
         <v>15</v>
       </c>
-      <c r="I729">
+      <c r="I729" s="3">
+        <v>12</v>
+      </c>
+      <c r="J729" s="3">
+        <v>7</v>
+      </c>
+      <c r="K729" s="3">
+        <v>4</v>
+      </c>
+      <c r="L729" s="3">
+        <v>3</v>
+      </c>
+      <c r="M729" s="3">
         <v>0</v>
       </c>
-      <c r="J729">
-        <v>0</v>
-      </c>
-      <c r="K729">
-        <v>0</v>
-      </c>
-      <c r="L729">
-        <v>0</v>
-      </c>
-      <c r="M729">
-        <v>0</v>
-      </c>
       <c r="N729">
-        <v>360</v>
+        <f t="shared" ref="N729:N760" si="0">SUM(B729:M729)</f>
+        <v>386</v>
       </c>
       <c r="O729">
         <v>2023</v>
@@ -34806,44 +34846,45 @@
       <c r="A730" t="s">
         <v>17</v>
       </c>
-      <c r="B730">
-        <v>641</v>
-      </c>
-      <c r="C730">
-        <v>839</v>
-      </c>
-      <c r="D730">
-        <v>1645</v>
-      </c>
-      <c r="E730">
-        <v>1167</v>
-      </c>
-      <c r="F730">
-        <v>1112</v>
-      </c>
-      <c r="G730">
+      <c r="B730" s="3">
+        <v>640</v>
+      </c>
+      <c r="C730" s="3">
+        <v>838</v>
+      </c>
+      <c r="D730" s="3">
+        <v>1640</v>
+      </c>
+      <c r="E730" s="3">
+        <v>1146</v>
+      </c>
+      <c r="F730" s="3">
+        <v>1107</v>
+      </c>
+      <c r="G730" s="3">
         <v>1086</v>
       </c>
-      <c r="H730">
-        <v>1456</v>
-      </c>
-      <c r="I730">
-        <v>0</v>
-      </c>
-      <c r="J730">
-        <v>0</v>
-      </c>
-      <c r="K730">
-        <v>0</v>
-      </c>
-      <c r="L730">
-        <v>0</v>
-      </c>
-      <c r="M730">
-        <v>0</v>
+      <c r="H730" s="3">
+        <v>1450</v>
+      </c>
+      <c r="I730" s="3">
+        <v>1624</v>
+      </c>
+      <c r="J730" s="3">
+        <v>2057</v>
+      </c>
+      <c r="K730" s="3">
+        <v>1963</v>
+      </c>
+      <c r="L730" s="3">
+        <v>1629</v>
+      </c>
+      <c r="M730" s="3">
+        <v>1912</v>
       </c>
       <c r="N730">
-        <v>7946</v>
+        <f t="shared" si="0"/>
+        <v>17092</v>
       </c>
       <c r="O730">
         <v>2023</v>
@@ -34853,44 +34894,45 @@
       <c r="A731" t="s">
         <v>18</v>
       </c>
-      <c r="B731">
+      <c r="B731" s="3">
         <v>8</v>
       </c>
-      <c r="C731">
+      <c r="C731" s="3">
         <v>6</v>
       </c>
-      <c r="D731">
+      <c r="D731" s="3">
         <v>9</v>
       </c>
-      <c r="E731">
+      <c r="E731" s="3">
         <v>17</v>
       </c>
-      <c r="F731">
+      <c r="F731" s="3">
         <v>19</v>
       </c>
-      <c r="G731">
+      <c r="G731" s="3">
         <v>8</v>
       </c>
-      <c r="H731">
+      <c r="H731" s="3">
         <v>16</v>
       </c>
-      <c r="I731">
-        <v>0</v>
-      </c>
-      <c r="J731">
-        <v>0</v>
-      </c>
-      <c r="K731">
-        <v>0</v>
-      </c>
-      <c r="L731">
-        <v>0</v>
-      </c>
-      <c r="M731">
-        <v>0</v>
+      <c r="I731" s="3">
+        <v>44</v>
+      </c>
+      <c r="J731" s="3">
+        <v>60</v>
+      </c>
+      <c r="K731" s="3">
+        <v>46</v>
+      </c>
+      <c r="L731" s="3">
+        <v>97</v>
+      </c>
+      <c r="M731" s="3">
+        <v>73</v>
       </c>
       <c r="N731">
-        <v>83</v>
+        <f t="shared" si="0"/>
+        <v>403</v>
       </c>
       <c r="O731">
         <v>2023</v>
@@ -34900,44 +34942,45 @@
       <c r="A732" t="s">
         <v>19</v>
       </c>
-      <c r="B732">
-        <v>30</v>
-      </c>
-      <c r="C732">
+      <c r="B732" s="3">
+        <v>27</v>
+      </c>
+      <c r="C732" s="3">
         <v>1</v>
       </c>
-      <c r="D732">
-        <v>80</v>
-      </c>
-      <c r="E732">
+      <c r="D732" s="3">
+        <v>79</v>
+      </c>
+      <c r="E732" s="3">
         <v>128</v>
       </c>
-      <c r="F732">
-        <v>251</v>
-      </c>
-      <c r="G732">
-        <v>59</v>
-      </c>
-      <c r="H732">
+      <c r="F732" s="3">
+        <v>248</v>
+      </c>
+      <c r="G732" s="3">
+        <v>56</v>
+      </c>
+      <c r="H732" s="3">
         <v>129</v>
       </c>
-      <c r="I732">
-        <v>0</v>
-      </c>
-      <c r="J732">
-        <v>0</v>
-      </c>
-      <c r="K732">
-        <v>0</v>
-      </c>
-      <c r="L732">
-        <v>0</v>
-      </c>
-      <c r="M732">
-        <v>0</v>
+      <c r="I732" s="3">
+        <v>234</v>
+      </c>
+      <c r="J732" s="3">
+        <v>461</v>
+      </c>
+      <c r="K732" s="3">
+        <v>354</v>
+      </c>
+      <c r="L732" s="3">
+        <v>338</v>
+      </c>
+      <c r="M732" s="3">
+        <v>343</v>
       </c>
       <c r="N732">
-        <v>678</v>
+        <f t="shared" si="0"/>
+        <v>2398</v>
       </c>
       <c r="O732">
         <v>2023</v>
@@ -34947,44 +34990,45 @@
       <c r="A733" t="s">
         <v>20</v>
       </c>
-      <c r="B733">
-        <v>7906</v>
-      </c>
-      <c r="C733">
-        <v>8078</v>
-      </c>
-      <c r="D733">
-        <v>9869</v>
-      </c>
-      <c r="E733">
-        <v>3355</v>
-      </c>
-      <c r="F733">
-        <v>10469</v>
-      </c>
-      <c r="G733">
-        <v>14633</v>
-      </c>
-      <c r="H733">
-        <v>16807</v>
-      </c>
-      <c r="I733">
-        <v>0</v>
-      </c>
-      <c r="J733">
-        <v>0</v>
-      </c>
-      <c r="K733">
-        <v>0</v>
-      </c>
-      <c r="L733">
-        <v>0</v>
-      </c>
-      <c r="M733">
-        <v>0</v>
+      <c r="B733" s="3">
+        <v>7900</v>
+      </c>
+      <c r="C733" s="3">
+        <v>8079</v>
+      </c>
+      <c r="D733" s="3">
+        <v>9857</v>
+      </c>
+      <c r="E733" s="3">
+        <v>3352</v>
+      </c>
+      <c r="F733" s="3">
+        <v>10453</v>
+      </c>
+      <c r="G733" s="3">
+        <v>14631</v>
+      </c>
+      <c r="H733" s="3">
+        <v>16796</v>
+      </c>
+      <c r="I733" s="3">
+        <v>1573</v>
+      </c>
+      <c r="J733" s="3">
+        <v>16372</v>
+      </c>
+      <c r="K733" s="3">
+        <v>16694</v>
+      </c>
+      <c r="L733" s="3">
+        <v>14638</v>
+      </c>
+      <c r="M733" s="3">
+        <v>8737</v>
       </c>
       <c r="N733">
-        <v>71117</v>
+        <f t="shared" si="0"/>
+        <v>129082</v>
       </c>
       <c r="O733">
         <v>2023</v>
@@ -34994,44 +35038,45 @@
       <c r="A734" t="s">
         <v>21</v>
       </c>
-      <c r="B734">
-        <v>2007</v>
-      </c>
-      <c r="C734">
-        <v>1348</v>
-      </c>
-      <c r="D734">
-        <v>421</v>
-      </c>
-      <c r="E734">
+      <c r="B734" s="3">
+        <v>1988</v>
+      </c>
+      <c r="C734" s="3">
+        <v>1346</v>
+      </c>
+      <c r="D734" s="3">
+        <v>419</v>
+      </c>
+      <c r="E734" s="3">
         <v>31</v>
       </c>
-      <c r="F734">
-        <v>257</v>
-      </c>
-      <c r="G734">
+      <c r="F734" s="3">
+        <v>259</v>
+      </c>
+      <c r="G734" s="3">
         <v>1085</v>
       </c>
-      <c r="H734">
-        <v>890</v>
-      </c>
-      <c r="I734">
-        <v>0</v>
-      </c>
-      <c r="J734">
-        <v>0</v>
-      </c>
-      <c r="K734">
-        <v>0</v>
-      </c>
-      <c r="L734">
-        <v>0</v>
-      </c>
-      <c r="M734">
-        <v>0</v>
+      <c r="H734" s="3">
+        <v>888</v>
+      </c>
+      <c r="I734" s="3">
+        <v>1076</v>
+      </c>
+      <c r="J734" s="3">
+        <v>471</v>
+      </c>
+      <c r="K734" s="3">
+        <v>127</v>
+      </c>
+      <c r="L734" s="3">
+        <v>697</v>
+      </c>
+      <c r="M734" s="3">
+        <v>560</v>
       </c>
       <c r="N734">
-        <v>6039</v>
+        <f t="shared" si="0"/>
+        <v>8947</v>
       </c>
       <c r="O734">
         <v>2023</v>
@@ -35041,44 +35086,45 @@
       <c r="A735" t="s">
         <v>22</v>
       </c>
-      <c r="B735">
-        <v>3469</v>
-      </c>
-      <c r="C735">
-        <v>1561</v>
-      </c>
-      <c r="D735">
-        <v>2342</v>
-      </c>
-      <c r="E735">
-        <v>1987</v>
-      </c>
-      <c r="F735">
-        <v>987</v>
-      </c>
-      <c r="G735">
-        <v>938</v>
-      </c>
-      <c r="H735">
-        <v>0</v>
-      </c>
-      <c r="I735">
-        <v>0</v>
-      </c>
-      <c r="J735">
-        <v>0</v>
-      </c>
-      <c r="K735">
-        <v>0</v>
-      </c>
-      <c r="L735">
-        <v>0</v>
-      </c>
-      <c r="M735">
-        <v>0</v>
+      <c r="B735" s="3">
+        <v>3434</v>
+      </c>
+      <c r="C735" s="3">
+        <v>1551</v>
+      </c>
+      <c r="D735" s="3">
+        <v>2325</v>
+      </c>
+      <c r="E735" s="3">
+        <v>2012</v>
+      </c>
+      <c r="F735" s="3">
+        <v>985</v>
+      </c>
+      <c r="G735" s="3">
+        <v>911</v>
+      </c>
+      <c r="H735" s="3">
+        <v>835</v>
+      </c>
+      <c r="I735" s="3">
+        <v>701</v>
+      </c>
+      <c r="J735" s="3">
+        <v>1021</v>
+      </c>
+      <c r="K735" s="3">
+        <v>1057</v>
+      </c>
+      <c r="L735" s="3">
+        <v>1004</v>
+      </c>
+      <c r="M735" s="3">
+        <v>3263</v>
       </c>
       <c r="N735">
-        <v>11284</v>
+        <f t="shared" si="0"/>
+        <v>19099</v>
       </c>
       <c r="O735">
         <v>2023</v>
@@ -35088,44 +35134,45 @@
       <c r="A736" t="s">
         <v>23</v>
       </c>
-      <c r="B736">
+      <c r="B736" s="3">
+        <v>1</v>
+      </c>
+      <c r="C736" s="3">
+        <v>1</v>
+      </c>
+      <c r="D736" s="3">
+        <v>3</v>
+      </c>
+      <c r="E736" s="3">
         <v>0</v>
       </c>
-      <c r="C736">
+      <c r="F736" s="3">
+        <v>0</v>
+      </c>
+      <c r="G736" s="3">
+        <v>2</v>
+      </c>
+      <c r="H736" s="3">
         <v>1</v>
       </c>
-      <c r="D736">
+      <c r="I736" s="3">
         <v>3</v>
       </c>
-      <c r="E736">
+      <c r="J736" s="3">
+        <v>5</v>
+      </c>
+      <c r="K736" s="3">
+        <v>1</v>
+      </c>
+      <c r="L736" s="3">
+        <v>1</v>
+      </c>
+      <c r="M736" s="3">
         <v>0</v>
       </c>
-      <c r="F736">
-        <v>0</v>
-      </c>
-      <c r="G736">
-        <v>2</v>
-      </c>
-      <c r="H736">
-        <v>1</v>
-      </c>
-      <c r="I736">
-        <v>0</v>
-      </c>
-      <c r="J736">
-        <v>0</v>
-      </c>
-      <c r="K736">
-        <v>0</v>
-      </c>
-      <c r="L736">
-        <v>0</v>
-      </c>
-      <c r="M736">
-        <v>0</v>
-      </c>
       <c r="N736">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="O736">
         <v>2023</v>
@@ -35135,44 +35182,45 @@
       <c r="A737" t="s">
         <v>24</v>
       </c>
-      <c r="B737">
-        <v>269</v>
-      </c>
-      <c r="C737">
-        <v>454</v>
-      </c>
-      <c r="D737">
-        <v>505</v>
-      </c>
-      <c r="E737">
-        <v>388</v>
-      </c>
-      <c r="F737">
-        <v>286</v>
-      </c>
-      <c r="G737">
-        <v>561</v>
-      </c>
-      <c r="H737">
-        <v>634</v>
-      </c>
-      <c r="I737">
-        <v>0</v>
-      </c>
-      <c r="J737">
-        <v>0</v>
-      </c>
-      <c r="K737">
-        <v>0</v>
-      </c>
-      <c r="L737">
-        <v>0</v>
-      </c>
-      <c r="M737">
-        <v>0</v>
+      <c r="B737" s="3">
+        <v>268</v>
+      </c>
+      <c r="C737" s="3">
+        <v>453</v>
+      </c>
+      <c r="D737" s="3">
+        <v>492</v>
+      </c>
+      <c r="E737" s="3">
+        <v>385</v>
+      </c>
+      <c r="F737" s="3">
+        <v>255</v>
+      </c>
+      <c r="G737" s="3">
+        <v>530</v>
+      </c>
+      <c r="H737" s="3">
+        <v>637</v>
+      </c>
+      <c r="I737" s="3">
+        <v>583</v>
+      </c>
+      <c r="J737" s="3">
+        <v>607</v>
+      </c>
+      <c r="K737" s="3">
+        <v>708</v>
+      </c>
+      <c r="L737" s="3">
+        <v>605</v>
+      </c>
+      <c r="M737" s="3">
+        <v>436</v>
       </c>
       <c r="N737">
-        <v>3097</v>
+        <f t="shared" si="0"/>
+        <v>5959</v>
       </c>
       <c r="O737">
         <v>2023</v>
@@ -35182,44 +35230,45 @@
       <c r="A738" t="s">
         <v>25</v>
       </c>
-      <c r="B738">
+      <c r="B738" s="3">
         <v>191</v>
       </c>
-      <c r="C738">
+      <c r="C738" s="3">
         <v>127</v>
       </c>
-      <c r="D738">
+      <c r="D738" s="3">
         <v>147</v>
       </c>
-      <c r="E738">
+      <c r="E738" s="3">
         <v>88</v>
       </c>
-      <c r="F738">
+      <c r="F738" s="3">
         <v>28</v>
       </c>
-      <c r="G738">
+      <c r="G738" s="3">
         <v>23</v>
       </c>
-      <c r="H738">
+      <c r="H738" s="3">
         <v>68</v>
       </c>
-      <c r="I738">
-        <v>0</v>
-      </c>
-      <c r="J738">
-        <v>0</v>
-      </c>
-      <c r="K738">
-        <v>0</v>
-      </c>
-      <c r="L738">
-        <v>0</v>
-      </c>
-      <c r="M738">
-        <v>0</v>
+      <c r="I738" s="3">
+        <v>231</v>
+      </c>
+      <c r="J738" s="3">
+        <v>50</v>
+      </c>
+      <c r="K738" s="3">
+        <v>155</v>
+      </c>
+      <c r="L738" s="3">
+        <v>71</v>
+      </c>
+      <c r="M738" s="3">
+        <v>59</v>
       </c>
       <c r="N738">
-        <v>672</v>
+        <f t="shared" si="0"/>
+        <v>1238</v>
       </c>
       <c r="O738">
         <v>2023</v>
@@ -35229,44 +35278,45 @@
       <c r="A739" t="s">
         <v>26</v>
       </c>
-      <c r="B739">
-        <v>461</v>
-      </c>
-      <c r="C739">
-        <v>595</v>
-      </c>
-      <c r="D739">
+      <c r="B739" s="3">
+        <v>456</v>
+      </c>
+      <c r="C739" s="3">
+        <v>575</v>
+      </c>
+      <c r="D739" s="3">
         <v>574</v>
       </c>
-      <c r="E739">
-        <v>193</v>
-      </c>
-      <c r="F739">
-        <v>144</v>
-      </c>
-      <c r="G739">
-        <v>203</v>
-      </c>
-      <c r="H739">
-        <v>469</v>
-      </c>
-      <c r="I739">
-        <v>0</v>
-      </c>
-      <c r="J739">
-        <v>0</v>
-      </c>
-      <c r="K739">
-        <v>0</v>
-      </c>
-      <c r="L739">
-        <v>0</v>
-      </c>
-      <c r="M739">
-        <v>0</v>
+      <c r="E739" s="3">
+        <v>189</v>
+      </c>
+      <c r="F739" s="3">
+        <v>139</v>
+      </c>
+      <c r="G739" s="3">
+        <v>185</v>
+      </c>
+      <c r="H739" s="3">
+        <v>467</v>
+      </c>
+      <c r="I739" s="3">
+        <v>261</v>
+      </c>
+      <c r="J739" s="3">
+        <v>544</v>
+      </c>
+      <c r="K739" s="3">
+        <v>1457</v>
+      </c>
+      <c r="L739" s="3">
+        <v>759</v>
+      </c>
+      <c r="M739" s="3">
+        <v>52</v>
       </c>
       <c r="N739">
-        <v>2639</v>
+        <f t="shared" si="0"/>
+        <v>5658</v>
       </c>
       <c r="O739">
         <v>2023</v>
@@ -35276,44 +35326,45 @@
       <c r="A740" t="s">
         <v>27</v>
       </c>
-      <c r="B740">
+      <c r="B740" s="3">
         <v>26</v>
       </c>
-      <c r="C740">
+      <c r="C740" s="3">
         <v>72</v>
       </c>
-      <c r="D740">
-        <v>46</v>
-      </c>
-      <c r="E740">
+      <c r="D740" s="3">
+        <v>45</v>
+      </c>
+      <c r="E740" s="3">
         <v>40</v>
       </c>
-      <c r="F740">
+      <c r="F740" s="3">
         <v>1</v>
       </c>
-      <c r="G740">
+      <c r="G740" s="3">
         <v>7</v>
       </c>
-      <c r="H740">
+      <c r="H740" s="3">
         <v>0</v>
       </c>
-      <c r="I740">
+      <c r="I740" s="3">
         <v>0</v>
       </c>
-      <c r="J740">
+      <c r="J740" s="3">
         <v>0</v>
       </c>
-      <c r="K740">
+      <c r="K740" s="3">
         <v>0</v>
       </c>
-      <c r="L740">
+      <c r="L740" s="3">
         <v>0</v>
       </c>
-      <c r="M740">
+      <c r="M740" s="3">
         <v>0</v>
       </c>
       <c r="N740">
-        <v>192</v>
+        <f t="shared" si="0"/>
+        <v>191</v>
       </c>
       <c r="O740">
         <v>2023</v>
@@ -35323,44 +35374,45 @@
       <c r="A741" t="s">
         <v>28</v>
       </c>
-      <c r="B741">
+      <c r="B741" s="3">
         <v>97</v>
       </c>
-      <c r="C741">
+      <c r="C741" s="3">
         <v>270</v>
       </c>
-      <c r="D741">
-        <v>292</v>
-      </c>
-      <c r="E741">
-        <v>151</v>
-      </c>
-      <c r="F741">
+      <c r="D741" s="3">
+        <v>289</v>
+      </c>
+      <c r="E741" s="3">
+        <v>150</v>
+      </c>
+      <c r="F741" s="3">
         <v>0</v>
       </c>
-      <c r="G741">
+      <c r="G741" s="3">
         <v>4</v>
       </c>
-      <c r="H741">
+      <c r="H741" s="3">
         <v>48</v>
       </c>
-      <c r="I741">
+      <c r="I741" s="3">
+        <v>122</v>
+      </c>
+      <c r="J741" s="3">
+        <v>99</v>
+      </c>
+      <c r="K741" s="3">
+        <v>42</v>
+      </c>
+      <c r="L741" s="3">
         <v>0</v>
       </c>
-      <c r="J741">
+      <c r="M741" s="3">
         <v>0</v>
       </c>
-      <c r="K741">
-        <v>0</v>
-      </c>
-      <c r="L741">
-        <v>0</v>
-      </c>
-      <c r="M741">
-        <v>0</v>
-      </c>
       <c r="N741">
-        <v>862</v>
+        <f t="shared" si="0"/>
+        <v>1121</v>
       </c>
       <c r="O741">
         <v>2023</v>
@@ -35370,44 +35422,45 @@
       <c r="A742" t="s">
         <v>29</v>
       </c>
-      <c r="B742">
-        <v>146</v>
-      </c>
-      <c r="C742">
-        <v>126</v>
-      </c>
-      <c r="D742">
-        <v>66</v>
-      </c>
-      <c r="E742">
-        <v>119</v>
-      </c>
-      <c r="F742">
+      <c r="B742" s="3">
+        <v>131</v>
+      </c>
+      <c r="C742" s="3">
+        <v>113</v>
+      </c>
+      <c r="D742" s="3">
+        <v>65</v>
+      </c>
+      <c r="E742" s="3">
+        <v>99</v>
+      </c>
+      <c r="F742" s="3">
         <v>0</v>
       </c>
-      <c r="G742">
+      <c r="G742" s="3">
         <v>24</v>
       </c>
-      <c r="H742">
-        <v>349</v>
-      </c>
-      <c r="I742">
-        <v>0</v>
-      </c>
-      <c r="J742">
-        <v>0</v>
-      </c>
-      <c r="K742">
-        <v>0</v>
-      </c>
-      <c r="L742">
-        <v>0</v>
-      </c>
-      <c r="M742">
-        <v>0</v>
+      <c r="H742" s="3">
+        <v>346</v>
+      </c>
+      <c r="I742" s="3">
+        <v>58</v>
+      </c>
+      <c r="J742" s="3">
+        <v>6</v>
+      </c>
+      <c r="K742" s="3">
+        <v>25</v>
+      </c>
+      <c r="L742" s="3">
+        <v>1</v>
+      </c>
+      <c r="M742" s="3">
+        <v>21</v>
       </c>
       <c r="N742">
-        <v>830</v>
+        <f t="shared" si="0"/>
+        <v>889</v>
       </c>
       <c r="O742">
         <v>2023</v>
@@ -35417,44 +35470,45 @@
       <c r="A743" t="s">
         <v>30</v>
       </c>
-      <c r="B743">
-        <v>220</v>
-      </c>
-      <c r="C743">
-        <v>333</v>
-      </c>
-      <c r="D743">
-        <v>268</v>
-      </c>
-      <c r="E743">
+      <c r="B743" s="3">
+        <v>214</v>
+      </c>
+      <c r="C743" s="3">
+        <v>327</v>
+      </c>
+      <c r="D743" s="3">
+        <v>257</v>
+      </c>
+      <c r="E743" s="3">
         <v>107</v>
       </c>
-      <c r="F743">
+      <c r="F743" s="3">
         <v>1</v>
       </c>
-      <c r="G743">
+      <c r="G743" s="3">
         <v>0</v>
       </c>
-      <c r="H743">
+      <c r="H743" s="3">
         <v>123</v>
       </c>
-      <c r="I743">
+      <c r="I743" s="3">
+        <v>391</v>
+      </c>
+      <c r="J743" s="3">
+        <v>2</v>
+      </c>
+      <c r="K743" s="3">
         <v>0</v>
       </c>
-      <c r="J743">
-        <v>0</v>
-      </c>
-      <c r="K743">
-        <v>0</v>
-      </c>
-      <c r="L743">
-        <v>0</v>
-      </c>
-      <c r="M743">
-        <v>0</v>
+      <c r="L743" s="3">
+        <v>5</v>
+      </c>
+      <c r="M743" s="3">
+        <v>1</v>
       </c>
       <c r="N743">
-        <v>1052</v>
+        <f t="shared" si="0"/>
+        <v>1428</v>
       </c>
       <c r="O743">
         <v>2023</v>
@@ -35464,44 +35518,45 @@
       <c r="A744" t="s">
         <v>31</v>
       </c>
-      <c r="B744">
+      <c r="B744" s="3">
         <v>2</v>
       </c>
-      <c r="C744">
+      <c r="C744" s="3">
         <v>5</v>
       </c>
-      <c r="D744">
+      <c r="D744" s="3">
         <v>3</v>
       </c>
-      <c r="E744">
+      <c r="E744" s="3">
         <v>7</v>
       </c>
-      <c r="F744">
+      <c r="F744" s="3">
         <v>2</v>
       </c>
-      <c r="G744">
+      <c r="G744" s="3">
         <v>7</v>
       </c>
-      <c r="H744">
+      <c r="H744" s="3">
         <v>0</v>
       </c>
-      <c r="I744">
-        <v>0</v>
-      </c>
-      <c r="J744">
-        <v>0</v>
-      </c>
-      <c r="K744">
-        <v>0</v>
-      </c>
-      <c r="L744">
-        <v>0</v>
-      </c>
-      <c r="M744">
-        <v>0</v>
+      <c r="I744" s="3">
+        <v>7</v>
+      </c>
+      <c r="J744" s="3">
+        <v>9</v>
+      </c>
+      <c r="K744" s="3">
+        <v>63</v>
+      </c>
+      <c r="L744" s="3">
+        <v>108</v>
+      </c>
+      <c r="M744" s="3">
+        <v>41</v>
       </c>
       <c r="N744">
-        <v>26</v>
+        <f t="shared" si="0"/>
+        <v>254</v>
       </c>
       <c r="O744">
         <v>2023</v>
@@ -35511,44 +35566,45 @@
       <c r="A745" t="s">
         <v>32</v>
       </c>
-      <c r="B745">
+      <c r="B745" s="3">
         <v>8</v>
       </c>
-      <c r="C745">
+      <c r="C745" s="3">
         <v>4</v>
       </c>
-      <c r="D745">
+      <c r="D745" s="3">
         <v>7</v>
       </c>
-      <c r="E745">
+      <c r="E745" s="3">
         <v>1</v>
       </c>
-      <c r="F745">
+      <c r="F745" s="3">
         <v>3</v>
       </c>
-      <c r="G745">
+      <c r="G745" s="3">
         <v>1</v>
       </c>
-      <c r="H745">
+      <c r="H745" s="3">
         <v>5</v>
       </c>
-      <c r="I745">
+      <c r="I745" s="3">
+        <v>5</v>
+      </c>
+      <c r="J745" s="3">
+        <v>4</v>
+      </c>
+      <c r="K745" s="3">
+        <v>1</v>
+      </c>
+      <c r="L745" s="3">
         <v>0</v>
       </c>
-      <c r="J745">
-        <v>0</v>
-      </c>
-      <c r="K745">
-        <v>0</v>
-      </c>
-      <c r="L745">
-        <v>0</v>
-      </c>
-      <c r="M745">
-        <v>0</v>
+      <c r="M745" s="3">
+        <v>1</v>
       </c>
       <c r="N745">
-        <v>29</v>
+        <f t="shared" si="0"/>
+        <v>40</v>
       </c>
       <c r="O745">
         <v>2023</v>
@@ -35558,44 +35614,45 @@
       <c r="A746" t="s">
         <v>33</v>
       </c>
-      <c r="B746">
+      <c r="B746" s="3">
+        <v>26</v>
+      </c>
+      <c r="C746" s="3">
+        <v>12</v>
+      </c>
+      <c r="D746" s="3">
+        <v>42</v>
+      </c>
+      <c r="E746" s="3">
+        <v>1</v>
+      </c>
+      <c r="F746" s="3">
+        <v>9</v>
+      </c>
+      <c r="G746" s="3">
+        <v>9</v>
+      </c>
+      <c r="H746" s="3">
+        <v>29</v>
+      </c>
+      <c r="I746" s="3">
+        <v>0</v>
+      </c>
+      <c r="J746" s="3">
+        <v>10</v>
+      </c>
+      <c r="K746" s="3">
+        <v>1</v>
+      </c>
+      <c r="L746" s="3">
         <v>25</v>
       </c>
-      <c r="C746">
-        <v>12</v>
-      </c>
-      <c r="D746">
-        <v>43</v>
-      </c>
-      <c r="E746">
+      <c r="M746" s="3">
         <v>1</v>
       </c>
-      <c r="F746">
-        <v>10</v>
-      </c>
-      <c r="G746">
-        <v>9</v>
-      </c>
-      <c r="H746">
-        <v>29</v>
-      </c>
-      <c r="I746">
-        <v>0</v>
-      </c>
-      <c r="J746">
-        <v>0</v>
-      </c>
-      <c r="K746">
-        <v>0</v>
-      </c>
-      <c r="L746">
-        <v>0</v>
-      </c>
-      <c r="M746">
-        <v>0</v>
-      </c>
       <c r="N746">
-        <v>129</v>
+        <f t="shared" si="0"/>
+        <v>165</v>
       </c>
       <c r="O746">
         <v>2023</v>
@@ -35605,44 +35662,45 @@
       <c r="A747" t="s">
         <v>34</v>
       </c>
-      <c r="B747">
-        <v>625</v>
-      </c>
-      <c r="C747">
-        <v>538</v>
-      </c>
-      <c r="D747">
-        <v>1365</v>
-      </c>
-      <c r="E747">
+      <c r="B747" s="3">
+        <v>552</v>
+      </c>
+      <c r="C747" s="3">
+        <v>536</v>
+      </c>
+      <c r="D747" s="3">
+        <v>1361</v>
+      </c>
+      <c r="E747" s="3">
         <v>415</v>
       </c>
-      <c r="F747">
-        <v>409</v>
-      </c>
-      <c r="G747">
+      <c r="F747" s="3">
+        <v>407</v>
+      </c>
+      <c r="G747" s="3">
         <v>309</v>
       </c>
-      <c r="H747">
-        <v>542</v>
-      </c>
-      <c r="I747">
-        <v>0</v>
-      </c>
-      <c r="J747">
-        <v>0</v>
-      </c>
-      <c r="K747">
-        <v>0</v>
-      </c>
-      <c r="L747">
-        <v>0</v>
-      </c>
-      <c r="M747">
-        <v>0</v>
+      <c r="H747" s="3">
+        <v>522</v>
+      </c>
+      <c r="I747" s="3">
+        <v>683</v>
+      </c>
+      <c r="J747" s="3">
+        <v>934</v>
+      </c>
+      <c r="K747" s="3">
+        <v>1007</v>
+      </c>
+      <c r="L747" s="3">
+        <v>1366</v>
+      </c>
+      <c r="M747" s="3">
+        <v>1170</v>
       </c>
       <c r="N747">
-        <v>4203</v>
+        <f t="shared" si="0"/>
+        <v>9262</v>
       </c>
       <c r="O747">
         <v>2023</v>
@@ -35652,44 +35710,45 @@
       <c r="A748" t="s">
         <v>35</v>
       </c>
-      <c r="B748">
+      <c r="B748" s="3">
         <v>460</v>
       </c>
-      <c r="C748">
-        <v>741</v>
-      </c>
-      <c r="D748">
-        <v>674</v>
-      </c>
-      <c r="E748">
+      <c r="C748" s="3">
+        <v>738</v>
+      </c>
+      <c r="D748" s="3">
+        <v>663</v>
+      </c>
+      <c r="E748" s="3">
         <v>632</v>
       </c>
-      <c r="F748">
+      <c r="F748" s="3">
         <v>121</v>
       </c>
-      <c r="G748">
+      <c r="G748" s="3">
         <v>288</v>
       </c>
-      <c r="H748">
-        <v>183</v>
-      </c>
-      <c r="I748">
-        <v>0</v>
-      </c>
-      <c r="J748">
-        <v>0</v>
-      </c>
-      <c r="K748">
-        <v>0</v>
-      </c>
-      <c r="L748">
-        <v>0</v>
-      </c>
-      <c r="M748">
-        <v>0</v>
+      <c r="H748" s="3">
+        <v>180</v>
+      </c>
+      <c r="I748" s="3">
+        <v>276</v>
+      </c>
+      <c r="J748" s="3">
+        <v>370</v>
+      </c>
+      <c r="K748" s="3">
+        <v>378</v>
+      </c>
+      <c r="L748" s="3">
+        <v>664</v>
+      </c>
+      <c r="M748" s="3">
+        <v>271</v>
       </c>
       <c r="N748">
-        <v>3099</v>
+        <f t="shared" si="0"/>
+        <v>5041</v>
       </c>
       <c r="O748">
         <v>2023</v>
@@ -35699,44 +35758,45 @@
       <c r="A749" t="s">
         <v>36</v>
       </c>
-      <c r="B749">
-        <v>413</v>
-      </c>
-      <c r="C749">
-        <v>642</v>
-      </c>
-      <c r="D749">
-        <v>965</v>
-      </c>
-      <c r="E749">
-        <v>498</v>
-      </c>
-      <c r="F749">
+      <c r="B749" s="3">
+        <v>411</v>
+      </c>
+      <c r="C749" s="3">
+        <v>586</v>
+      </c>
+      <c r="D749" s="3">
+        <v>954</v>
+      </c>
+      <c r="E749" s="3">
+        <v>494</v>
+      </c>
+      <c r="F749" s="3">
         <v>172</v>
       </c>
-      <c r="G749">
+      <c r="G749" s="3">
         <v>7</v>
       </c>
-      <c r="H749">
+      <c r="H749" s="3">
         <v>1</v>
       </c>
-      <c r="I749">
-        <v>0</v>
-      </c>
-      <c r="J749">
-        <v>0</v>
-      </c>
-      <c r="K749">
-        <v>0</v>
-      </c>
-      <c r="L749">
-        <v>0</v>
-      </c>
-      <c r="M749">
-        <v>0</v>
+      <c r="I749" s="3">
+        <v>69</v>
+      </c>
+      <c r="J749" s="3">
+        <v>45</v>
+      </c>
+      <c r="K749" s="3">
+        <v>29</v>
+      </c>
+      <c r="L749" s="3">
+        <v>149</v>
+      </c>
+      <c r="M749" s="3">
+        <v>38</v>
       </c>
       <c r="N749">
-        <v>2698</v>
+        <f t="shared" si="0"/>
+        <v>2955</v>
       </c>
       <c r="O749">
         <v>2023</v>
@@ -35746,44 +35806,45 @@
       <c r="A750" t="s">
         <v>37</v>
       </c>
-      <c r="B750">
-        <v>122</v>
-      </c>
-      <c r="C750">
-        <v>35</v>
-      </c>
-      <c r="D750">
+      <c r="B750" s="3">
+        <v>66</v>
+      </c>
+      <c r="C750" s="3">
+        <v>32</v>
+      </c>
+      <c r="D750" s="3">
         <v>29</v>
       </c>
-      <c r="E750">
-        <v>157</v>
-      </c>
-      <c r="F750">
+      <c r="E750" s="3">
+        <v>156</v>
+      </c>
+      <c r="F750" s="3">
         <v>4</v>
       </c>
-      <c r="G750">
+      <c r="G750" s="3">
         <v>0</v>
       </c>
-      <c r="H750">
-        <v>88</v>
-      </c>
-      <c r="I750">
-        <v>0</v>
-      </c>
-      <c r="J750">
-        <v>0</v>
-      </c>
-      <c r="K750">
-        <v>0</v>
-      </c>
-      <c r="L750">
-        <v>0</v>
-      </c>
-      <c r="M750">
-        <v>0</v>
+      <c r="H750" s="3">
+        <v>90</v>
+      </c>
+      <c r="I750" s="3">
+        <v>235</v>
+      </c>
+      <c r="J750" s="3">
+        <v>90</v>
+      </c>
+      <c r="K750" s="3">
+        <v>63</v>
+      </c>
+      <c r="L750" s="3">
+        <v>354</v>
+      </c>
+      <c r="M750" s="3">
+        <v>40</v>
       </c>
       <c r="N750">
-        <v>435</v>
+        <f t="shared" si="0"/>
+        <v>1159</v>
       </c>
       <c r="O750">
         <v>2023</v>
@@ -35793,44 +35854,45 @@
       <c r="A751" t="s">
         <v>38</v>
       </c>
-      <c r="B751">
+      <c r="B751" s="3">
         <v>71</v>
       </c>
-      <c r="C751">
+      <c r="C751" s="3">
         <v>149</v>
       </c>
-      <c r="D751">
+      <c r="D751" s="3">
         <v>202</v>
       </c>
-      <c r="E751">
+      <c r="E751" s="3">
         <v>194</v>
       </c>
-      <c r="F751">
+      <c r="F751" s="3">
         <v>76</v>
       </c>
-      <c r="G751">
+      <c r="G751" s="3">
         <v>113</v>
       </c>
-      <c r="H751">
-        <v>460</v>
-      </c>
-      <c r="I751">
-        <v>0</v>
-      </c>
-      <c r="J751">
-        <v>0</v>
-      </c>
-      <c r="K751">
-        <v>0</v>
-      </c>
-      <c r="L751">
-        <v>0</v>
-      </c>
-      <c r="M751">
-        <v>0</v>
+      <c r="H751" s="3">
+        <v>464</v>
+      </c>
+      <c r="I751" s="3">
+        <v>294</v>
+      </c>
+      <c r="J751" s="3">
+        <v>172</v>
+      </c>
+      <c r="K751" s="3">
+        <v>131</v>
+      </c>
+      <c r="L751" s="3">
+        <v>218</v>
+      </c>
+      <c r="M751" s="3">
+        <v>105</v>
       </c>
       <c r="N751">
-        <v>1265</v>
+        <f t="shared" si="0"/>
+        <v>2189</v>
       </c>
       <c r="O751">
         <v>2023</v>
@@ -35840,44 +35902,45 @@
       <c r="A752" t="s">
         <v>39</v>
       </c>
-      <c r="B752">
-        <v>246</v>
-      </c>
-      <c r="C752">
-        <v>310</v>
-      </c>
-      <c r="D752">
-        <v>380</v>
-      </c>
-      <c r="E752">
+      <c r="B752" s="3">
+        <v>242</v>
+      </c>
+      <c r="C752" s="3">
+        <v>308</v>
+      </c>
+      <c r="D752" s="3">
+        <v>377</v>
+      </c>
+      <c r="E752" s="3">
         <v>216</v>
       </c>
-      <c r="F752">
+      <c r="F752" s="3">
         <v>16</v>
       </c>
-      <c r="G752">
+      <c r="G752" s="3">
         <v>0</v>
       </c>
-      <c r="H752">
+      <c r="H752" s="3">
         <v>61</v>
       </c>
-      <c r="I752">
-        <v>0</v>
-      </c>
-      <c r="J752">
-        <v>0</v>
-      </c>
-      <c r="K752">
-        <v>0</v>
-      </c>
-      <c r="L752">
-        <v>0</v>
-      </c>
-      <c r="M752">
-        <v>0</v>
+      <c r="I752" s="3">
+        <v>293</v>
+      </c>
+      <c r="J752" s="3">
+        <v>467</v>
+      </c>
+      <c r="K752" s="3">
+        <v>367</v>
+      </c>
+      <c r="L752" s="3">
+        <v>441</v>
+      </c>
+      <c r="M752" s="3">
+        <v>1153</v>
       </c>
       <c r="N752">
-        <v>1229</v>
+        <f t="shared" si="0"/>
+        <v>3941</v>
       </c>
       <c r="O752">
         <v>2023</v>
@@ -35887,44 +35950,45 @@
       <c r="A753" t="s">
         <v>40</v>
       </c>
-      <c r="B753">
+      <c r="B753" s="3">
         <v>76</v>
       </c>
-      <c r="C753">
+      <c r="C753" s="3">
         <v>96</v>
       </c>
-      <c r="D753">
+      <c r="D753" s="3">
         <v>125</v>
       </c>
-      <c r="E753">
+      <c r="E753" s="3">
         <v>22</v>
       </c>
-      <c r="F753">
+      <c r="F753" s="3">
         <v>2</v>
       </c>
-      <c r="G753">
+      <c r="G753" s="3">
         <v>0</v>
       </c>
-      <c r="H753">
+      <c r="H753" s="3">
         <v>0</v>
       </c>
-      <c r="I753">
+      <c r="I753" s="3">
         <v>0</v>
       </c>
-      <c r="J753">
+      <c r="J753" s="3">
         <v>0</v>
       </c>
-      <c r="K753">
-        <v>0</v>
-      </c>
-      <c r="L753">
-        <v>0</v>
-      </c>
-      <c r="M753">
-        <v>0</v>
+      <c r="K753" s="3">
+        <v>3</v>
+      </c>
+      <c r="L753" s="3">
+        <v>8</v>
+      </c>
+      <c r="M753" s="3">
+        <v>1</v>
       </c>
       <c r="N753">
-        <v>321</v>
+        <f t="shared" si="0"/>
+        <v>333</v>
       </c>
       <c r="O753">
         <v>2023</v>
@@ -35934,44 +35998,45 @@
       <c r="A754" t="s">
         <v>41</v>
       </c>
-      <c r="B754">
-        <v>1384</v>
-      </c>
-      <c r="C754">
-        <v>1353</v>
-      </c>
-      <c r="D754">
-        <v>1660</v>
-      </c>
-      <c r="E754">
-        <v>2519</v>
-      </c>
-      <c r="F754">
-        <v>991</v>
-      </c>
-      <c r="G754">
-        <v>2086</v>
-      </c>
-      <c r="H754">
-        <v>1158</v>
-      </c>
-      <c r="I754">
-        <v>0</v>
-      </c>
-      <c r="J754">
-        <v>0</v>
-      </c>
-      <c r="K754">
-        <v>0</v>
-      </c>
-      <c r="L754">
-        <v>0</v>
-      </c>
-      <c r="M754">
-        <v>0</v>
+      <c r="B754" s="3">
+        <v>1385</v>
+      </c>
+      <c r="C754" s="3">
+        <v>1352</v>
+      </c>
+      <c r="D754" s="3">
+        <v>1653</v>
+      </c>
+      <c r="E754" s="3">
+        <v>2634</v>
+      </c>
+      <c r="F754" s="3">
+        <v>1059</v>
+      </c>
+      <c r="G754" s="3">
+        <v>2025</v>
+      </c>
+      <c r="H754" s="3">
+        <v>1157</v>
+      </c>
+      <c r="I754" s="3">
+        <v>2250</v>
+      </c>
+      <c r="J754" s="3">
+        <v>2767</v>
+      </c>
+      <c r="K754" s="3">
+        <v>1090</v>
+      </c>
+      <c r="L754" s="3">
+        <v>2255</v>
+      </c>
+      <c r="M754" s="3">
+        <v>4731</v>
       </c>
       <c r="N754">
-        <v>11151</v>
+        <f t="shared" si="0"/>
+        <v>24358</v>
       </c>
       <c r="O754">
         <v>2023</v>
@@ -35981,44 +36046,45 @@
       <c r="A755" t="s">
         <v>42</v>
       </c>
-      <c r="B755">
-        <v>2472</v>
-      </c>
-      <c r="C755">
-        <v>2043</v>
-      </c>
-      <c r="D755">
-        <v>3345</v>
-      </c>
-      <c r="E755">
-        <v>2167</v>
-      </c>
-      <c r="F755">
-        <v>8526</v>
-      </c>
-      <c r="G755">
-        <v>18081</v>
-      </c>
-      <c r="H755">
-        <v>25005</v>
-      </c>
-      <c r="I755">
-        <v>0</v>
-      </c>
-      <c r="J755">
-        <v>0</v>
-      </c>
-      <c r="K755">
-        <v>0</v>
-      </c>
-      <c r="L755">
-        <v>0</v>
-      </c>
-      <c r="M755">
-        <v>0</v>
+      <c r="B755" s="3">
+        <v>2471</v>
+      </c>
+      <c r="C755" s="3">
+        <v>2048</v>
+      </c>
+      <c r="D755" s="3">
+        <v>3342</v>
+      </c>
+      <c r="E755" s="3">
+        <v>2194</v>
+      </c>
+      <c r="F755" s="3">
+        <v>8307</v>
+      </c>
+      <c r="G755" s="3">
+        <v>17936</v>
+      </c>
+      <c r="H755" s="3">
+        <v>25007</v>
+      </c>
+      <c r="I755" s="3">
+        <v>38918</v>
+      </c>
+      <c r="J755" s="3">
+        <v>36923</v>
+      </c>
+      <c r="K755" s="3">
+        <v>33302</v>
+      </c>
+      <c r="L755" s="3">
+        <v>43630</v>
+      </c>
+      <c r="M755" s="3">
+        <v>54183</v>
       </c>
       <c r="N755">
-        <v>61639</v>
+        <f t="shared" si="0"/>
+        <v>268261</v>
       </c>
       <c r="O755">
         <v>2023</v>
@@ -36028,44 +36094,45 @@
       <c r="A756" t="s">
         <v>43</v>
       </c>
-      <c r="B756">
-        <v>735</v>
-      </c>
-      <c r="C756">
-        <v>990</v>
-      </c>
-      <c r="D756">
-        <v>1995</v>
-      </c>
-      <c r="E756">
-        <v>518</v>
-      </c>
-      <c r="F756">
-        <v>324</v>
-      </c>
-      <c r="G756">
-        <v>82</v>
-      </c>
-      <c r="H756">
-        <v>1031</v>
-      </c>
-      <c r="I756">
-        <v>0</v>
-      </c>
-      <c r="J756">
-        <v>0</v>
-      </c>
-      <c r="K756">
-        <v>0</v>
-      </c>
-      <c r="L756">
-        <v>0</v>
-      </c>
-      <c r="M756">
-        <v>0</v>
+      <c r="B756" s="3">
+        <v>719</v>
+      </c>
+      <c r="C756" s="3">
+        <v>946</v>
+      </c>
+      <c r="D756" s="3">
+        <v>1901</v>
+      </c>
+      <c r="E756" s="3">
+        <v>466</v>
+      </c>
+      <c r="F756" s="3">
+        <v>314</v>
+      </c>
+      <c r="G756" s="3">
+        <v>77</v>
+      </c>
+      <c r="H756" s="3">
+        <v>984</v>
+      </c>
+      <c r="I756" s="3">
+        <v>45</v>
+      </c>
+      <c r="J756" s="3">
+        <v>442</v>
+      </c>
+      <c r="K756" s="3">
+        <v>286</v>
+      </c>
+      <c r="L756" s="3">
+        <v>9</v>
+      </c>
+      <c r="M756" s="3">
+        <v>94</v>
       </c>
       <c r="N756">
-        <v>5675</v>
+        <f t="shared" si="0"/>
+        <v>6283</v>
       </c>
       <c r="O756">
         <v>2023</v>
@@ -36075,44 +36142,45 @@
       <c r="A757" t="s">
         <v>44</v>
       </c>
-      <c r="B757">
+      <c r="B757" s="3">
         <v>863</v>
       </c>
-      <c r="C757">
+      <c r="C757" s="3">
         <v>691</v>
       </c>
-      <c r="D757">
-        <v>642</v>
-      </c>
-      <c r="E757">
+      <c r="D757" s="3">
+        <v>641</v>
+      </c>
+      <c r="E757" s="3">
         <v>561</v>
       </c>
-      <c r="F757">
-        <v>183</v>
-      </c>
-      <c r="G757">
-        <v>284</v>
-      </c>
-      <c r="H757">
-        <v>502</v>
-      </c>
-      <c r="I757">
-        <v>0</v>
-      </c>
-      <c r="J757">
-        <v>0</v>
-      </c>
-      <c r="K757">
-        <v>0</v>
-      </c>
-      <c r="L757">
-        <v>0</v>
-      </c>
-      <c r="M757">
-        <v>0</v>
+      <c r="F757" s="3">
+        <v>180</v>
+      </c>
+      <c r="G757" s="3">
+        <v>281</v>
+      </c>
+      <c r="H757" s="3">
+        <v>485</v>
+      </c>
+      <c r="I757" s="3">
+        <v>325</v>
+      </c>
+      <c r="J757" s="3">
+        <v>481</v>
+      </c>
+      <c r="K757" s="3">
+        <v>345</v>
+      </c>
+      <c r="L757" s="3">
+        <v>398</v>
+      </c>
+      <c r="M757" s="3">
+        <v>250</v>
       </c>
       <c r="N757">
-        <v>3726</v>
+        <f t="shared" si="0"/>
+        <v>5501</v>
       </c>
       <c r="O757">
         <v>2023</v>
@@ -36122,44 +36190,45 @@
       <c r="A758" t="s">
         <v>45</v>
       </c>
-      <c r="B758">
-        <v>1777</v>
-      </c>
-      <c r="C758">
-        <v>2246</v>
-      </c>
-      <c r="D758">
-        <v>3615</v>
-      </c>
-      <c r="E758">
-        <v>2055</v>
-      </c>
-      <c r="F758">
-        <v>4143</v>
-      </c>
-      <c r="G758">
-        <v>3160</v>
-      </c>
-      <c r="H758">
-        <v>3594</v>
-      </c>
-      <c r="I758">
-        <v>0</v>
-      </c>
-      <c r="J758">
-        <v>0</v>
-      </c>
-      <c r="K758">
-        <v>0</v>
-      </c>
-      <c r="L758">
-        <v>0</v>
-      </c>
-      <c r="M758">
-        <v>0</v>
+      <c r="B758" s="3">
+        <v>1626</v>
+      </c>
+      <c r="C758" s="3">
+        <v>2098</v>
+      </c>
+      <c r="D758" s="3">
+        <v>3217</v>
+      </c>
+      <c r="E758" s="3">
+        <v>1882</v>
+      </c>
+      <c r="F758" s="3">
+        <v>3546</v>
+      </c>
+      <c r="G758" s="3">
+        <v>3115</v>
+      </c>
+      <c r="H758" s="3">
+        <v>3637</v>
+      </c>
+      <c r="I758" s="3">
+        <v>4949</v>
+      </c>
+      <c r="J758" s="3">
+        <v>5282</v>
+      </c>
+      <c r="K758" s="3">
+        <v>4266</v>
+      </c>
+      <c r="L758" s="3">
+        <v>2817</v>
+      </c>
+      <c r="M758" s="3">
+        <v>1800</v>
       </c>
       <c r="N758">
-        <v>20590</v>
+        <f t="shared" si="0"/>
+        <v>38235</v>
       </c>
       <c r="O758">
         <v>2023</v>
@@ -36169,44 +36238,45 @@
       <c r="A759" t="s">
         <v>46</v>
       </c>
-      <c r="B759">
-        <v>39</v>
-      </c>
-      <c r="C759">
+      <c r="B759" s="3">
         <v>37</v>
       </c>
-      <c r="D759">
-        <v>128</v>
-      </c>
-      <c r="E759">
+      <c r="C759" s="3">
+        <v>35</v>
+      </c>
+      <c r="D759" s="3">
+        <v>127</v>
+      </c>
+      <c r="E759" s="3">
         <v>336</v>
       </c>
-      <c r="F759">
+      <c r="F759" s="3">
         <v>4</v>
       </c>
-      <c r="G759">
+      <c r="G759" s="3">
         <v>10</v>
       </c>
-      <c r="H759">
+      <c r="H759" s="3">
         <v>23</v>
       </c>
-      <c r="I759">
-        <v>0</v>
-      </c>
-      <c r="J759">
-        <v>0</v>
-      </c>
-      <c r="K759">
-        <v>0</v>
-      </c>
-      <c r="L759">
-        <v>0</v>
-      </c>
-      <c r="M759">
-        <v>0</v>
+      <c r="I759" s="3">
+        <v>43</v>
+      </c>
+      <c r="J759" s="3">
+        <v>47</v>
+      </c>
+      <c r="K759" s="3">
+        <v>83</v>
+      </c>
+      <c r="L759" s="3">
+        <v>69</v>
+      </c>
+      <c r="M759" s="3">
+        <v>29</v>
       </c>
       <c r="N759">
-        <v>577</v>
+        <f t="shared" si="0"/>
+        <v>843</v>
       </c>
       <c r="O759">
         <v>2023</v>
@@ -36216,44 +36286,45 @@
       <c r="A760" t="s">
         <v>47</v>
       </c>
-      <c r="B760">
+      <c r="B760" s="3">
         <v>216</v>
       </c>
-      <c r="C760">
+      <c r="C760" s="3">
         <v>66</v>
       </c>
-      <c r="D760">
-        <v>285</v>
-      </c>
-      <c r="E760">
-        <v>14</v>
-      </c>
-      <c r="F760">
+      <c r="D760" s="3">
+        <v>286</v>
+      </c>
+      <c r="E760" s="3">
+        <v>12</v>
+      </c>
+      <c r="F760" s="3">
         <v>3</v>
       </c>
-      <c r="G760">
+      <c r="G760" s="3">
         <v>7</v>
       </c>
-      <c r="H760">
+      <c r="H760" s="3">
         <v>27</v>
       </c>
-      <c r="I760">
+      <c r="I760" s="3">
+        <v>25</v>
+      </c>
+      <c r="J760" s="3">
+        <v>164</v>
+      </c>
+      <c r="K760" s="3">
+        <v>26</v>
+      </c>
+      <c r="L760" s="3">
+        <v>8</v>
+      </c>
+      <c r="M760" s="3">
         <v>0</v>
       </c>
-      <c r="J760">
-        <v>0</v>
-      </c>
-      <c r="K760">
-        <v>0</v>
-      </c>
-      <c r="L760">
-        <v>0</v>
-      </c>
-      <c r="M760">
-        <v>0</v>
-      </c>
       <c r="N760">
-        <v>618</v>
+        <f t="shared" si="0"/>
+        <v>840</v>
       </c>
       <c r="O760">
         <v>2023</v>
